--- a/Test Excel Sheet.xlsx
+++ b/Test Excel Sheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srikanthmadduri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26D461D7-756E-8942-887D-3F719E6373C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31185AD8-3D2A-394A-9ED5-C6EEF4446583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16720" activeTab="2" xr2:uid="{B236DCCE-CDE0-1448-A92C-5755EEC426D0}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16720" activeTab="3" xr2:uid="{B236DCCE-CDE0-1448-A92C-5755EEC426D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="TestSheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Test Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -164,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,6 +187,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -195,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -229,16 +245,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1162,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3071B9-7507-3246-BD15-83B40DB8CA5E}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1433,4 +1493,281 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0785148-715F-694B-A235-30933FEBE6B5}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test Excel Sheet.xlsx
+++ b/Test Excel Sheet.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srikanthmadduri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31185AD8-3D2A-394A-9ED5-C6EEF4446583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793C7C9A-6A2B-1C44-AABE-0290207DA782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16720" activeTab="3" xr2:uid="{B236DCCE-CDE0-1448-A92C-5755EEC426D0}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16720" activeTab="4" xr2:uid="{B236DCCE-CDE0-1448-A92C-5755EEC426D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="TestSheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Test Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Test Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Test Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -159,6 +160,15 @@
 uname: test123
 pwd: PWD123@
 cpwd:PWD123@</t>
+  </si>
+  <si>
+    <t>test comment1</t>
+  </si>
+  <si>
+    <t>test comments3</t>
+  </si>
+  <si>
+    <t>test comment4</t>
   </si>
 </sst>
 </file>
@@ -945,7 +955,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -992,7 +1002,9 @@
         <v>33</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1223,7 +1235,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1284,7 +1296,9 @@
         <v>34</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -1499,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0785148-715F-694B-A235-30933FEBE6B5}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1593,7 +1607,9 @@
         <v>35</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
@@ -1770,4 +1786,283 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E023AC-E4AE-F244-B38F-1E39F6B068FC}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>